--- a/exercicio03/estudo-tempo.xlsx
+++ b/exercicio03/estudo-tempo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\181810032\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\181810032\Desktop\Mineracao_Analise_Dados\exercicio03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F647136F-DF31-48B8-AD1D-CC6255A2006D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B0BE3A-F7B4-43C5-8EBD-9457C9A11508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C164498E-2B99-413C-BB3F-B932DC0A3EF3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C164498E-2B99-413C-BB3F-B932DC0A3EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -82,8 +82,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -113,8 +121,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF561B62-40C4-41F3-864A-9DD1FBC56133}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -498,10 +506,10 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>45409.791666666664</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>45409.833333333336</v>
       </c>
     </row>
@@ -512,10 +520,10 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>45409.791666666664</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>45409.833333333336</v>
       </c>
     </row>
@@ -526,10 +534,10 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>45409.791666666664</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>45409.833333333336</v>
       </c>
     </row>
@@ -540,10 +548,10 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>45409.791666666664</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>45409.833333333336</v>
       </c>
     </row>
@@ -554,10 +562,12 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>45409.791666666664</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>45412.875</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
@@ -566,6 +576,12 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="1">
+        <v>45412.791666666664</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45412.875</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -574,6 +590,12 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
+      <c r="C12" s="1">
+        <v>45412.791666666664</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45412.875</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
@@ -582,6 +604,12 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="C13" s="1">
+        <v>45412.791666666664</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45412.875</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
@@ -590,8 +618,23 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="C14" s="1">
+        <v>45412.791666666664</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45412.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="2">
+        <v>45412.791666666664</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45412.875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>